--- a/recursos/simbolos de la gramatica.xlsx
+++ b/recursos/simbolos de la gramatica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin Barboza\Documents\Kevin\10mo semestre\compiladores\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin Barboza\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8A6E37-BD32-4786-A878-AE714D8EFD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA6C9EB-CBA5-4F99-85EE-FFB26FCAED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47BE9A5D-8359-41E9-9674-2AD4CFC893E2}"/>
   </bookViews>
@@ -529,14 +529,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23276AC0-69E2-4974-8AE2-F79AA62A1AE0}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -878,11 +878,11 @@
       <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -912,7 +912,7 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -930,7 +930,7 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="9" t="s">
         <v>65</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="9" t="s">
         <v>64</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="9" t="s">
         <v>67</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1002,7 +1002,7 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1177,17 +1177,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/recursos/simbolos de la gramatica.xlsx
+++ b/recursos/simbolos de la gramatica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin Barboza\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA6C9EB-CBA5-4F99-85EE-FFB26FCAED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78874D97-BA80-49A0-BB4E-F4A6DD6001CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47BE9A5D-8359-41E9-9674-2AD4CFC893E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{47BE9A5D-8359-41E9-9674-2AD4CFC893E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -529,14 +529,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,7 +855,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,11 +878,11 @@
       <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -912,7 +912,7 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -930,7 +930,7 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="9" t="s">
         <v>65</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="9" t="s">
         <v>64</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="9" t="s">
         <v>67</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1002,7 +1002,7 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1177,17 +1177,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/recursos/simbolos de la gramatica.xlsx
+++ b/recursos/simbolos de la gramatica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78874D97-BA80-49A0-BB4E-F4A6DD6001CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D71CAA-3C00-47B6-8A4B-4E60041E49A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{47BE9A5D-8359-41E9-9674-2AD4CFC893E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47BE9A5D-8359-41E9-9674-2AD4CFC893E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -529,14 +529,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,11 +878,11 @@
       <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -912,7 +912,7 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -930,7 +930,7 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="9" t="s">
         <v>65</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="9" t="s">
         <v>64</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="9" t="s">
         <v>67</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1002,7 +1002,7 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1177,17 +1177,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
